--- a/book.xlsx
+++ b/book.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,15 +466,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>出版年</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>丛书</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ISBN</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>简介</t>
         </is>
@@ -513,339 +518,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>350定价:18.80元装帧:平装</t>
+          <t xml:space="preserve"> 2001-2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>上春树文集（2001版）
-ISBN: 9787532725694</t>
+          <t xml:space="preserve"> 村上春树文集（2001版）</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 9787532725694</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>这是一部动人心弦的、平缓舒雅的、略带感伤的恋爱小说。小说主人公渡边以第一人称展开他同两个女孩间的爱情纠葛。渡边的第一个恋人直子原是他高中要好同学木月的女友，后来木月自杀了。一年后渡边同直子不期而遇并开始交往。此时的直子已变得娴静腼腆，美丽晶莹的眸子里不时掠过一丝难以捕捉的阴翳。两人只是日复一日地在落叶飘零的东京街头漫无目标地或前或后或并肩行走不止。直子20岁生日的晚上两人发生了性关系，不料第二天直子便不知去向。几个月后直子来信说她住进一家远在深山里的精神疗养院。渡边前去探望时发现直子开始带有成熟女性的丰腴与娇美。晚间两人虽同处一室，但渡边约束了自己，分手前表示永远等待直子。返校不久，由于一次偶然相遇，渡边开始与低年级的绿子交往。绿子同内向的直子截然相反，“简直就像迎着春天的晨光蹦跳到世界上来的一头小鹿”。这期间，渡边内心十分苦闷彷徨。一方面念念不忘直子缠绵的病情与柔情，一方面又难以抗拒绿子大胆的表白和迷人的活力。不久传来直子自杀的噩耗，渡边失魂魄地四处徒步旅行。最后，在直子同房病友玲子的鼓励下，开始摸索此后的人生。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1084336</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>小王子</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[法国]安东尼·德·圣-埃克苏佩里</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>人民文学出版社</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Le Petit Prince</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>马振聘</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>97定价:22.00元装帧:平装ISBN:97870200424</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                [法国]
-            安东尼·德·圣-埃克苏佩里
-出版社:
-人民文学出版社
-原作名: Le Petit Prince
- 译者:
-        马振聘
-出版年: 2003-8
-页数: 97
-定价: 22.00元
-装帧: 平装
-ISBN: 9787020042494</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>小王子是一个超凡脱俗的仙童，他住在一颗只比他大一丁点儿的小行星上。陪伴他的是一朵他非常喜爱的小玫瑰花。但玫瑰花的虚荣心伤害了小王子对她的感情。小王子告别小行星，开始了遨游太空的旅行。他先后访问了六个行星，各种见闻使他陷入忧伤，他感到大人们荒唐可笑、太不正常。只有在其中一个点灯人的星球上，小王子才找到一个可以作为朋友的人。但点灯人的天地又十分狭小，除了点灯人他自己，不能容下第二个人。在地理学家的指点下，孤单的小王子来到人类居住的地球。小王子发现人类缺乏想象力，只知像鹦鹉那样重复别人讲过的话。小王子这时越来越思念自己星球上的那枝小玫瑰。后来，小王子遇到一只小狐狸，小王子用耐心征服了小狐狸，与它结成了亲密的朋友。小狐狸把自己心中的秘密——肉眼看不见事务的本质，只有用心灵才能洞察一切——作为礼物，送给小王子。用这个秘密，小王子在撒哈拉大沙漠与遇险的飞行员一起找到了生命的泉水。最后，小王子在蛇的帮助下离开地球，重新回到他的B612号小行星上。童话描写小王子没有被成人那骗人的世界所征服，而最终找到自己的理想。这理想就是连结宇宙万物的爱，而这种爱又是世间所缺少的。因此，小王子常常流露出一种伤感的情绪。作者圣埃克絮佩里在献辞中说：这本书是献给长成了大人的从前那个孩子。《小王子》不仅赢得了儿童读者，也为成年人所喜爱，作品凝练的语言渗透了作者对人类及人类文明深邃的思索。它所表现出的讽刺与幻想，真情与哲理，使之成为法国乃至世界上最为著名的一部童话小说。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1008145</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>围城</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>钱锺书</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>人民文学出版社出版年: 1991-2页数: 359定价: 19.00装帧: 平装ISBN: 97870200247</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    钱锺书出版社:人民文学出版社出版年: 1991-2页数: 359定价: 19.00装帧: 平装ISBN: 97870200247</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>:钱锺书出版社:人民文学出版社</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>359定价:19.00装帧:平装ISBN:97870200247</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        
-            钱锺书
-出版社:
-人民文学出版社
-出版年: 1991-2
-页数: 359
-定价: 19.00
-装帧: 平装
-ISBN: 9787020024759</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>《围城》是钱钟书所著的长篇小说。第一版于1947年由上海晨光出版公司出版。1949年之后，由于政治等方面的原因，本书长期无法在中国大陆和台湾重印，仅在香港出现过盗印本。1980年由作者重新修订之后，在中国大陆地区由人民文学出版社刊印。此后作者又曾小幅修改过几次。《围城》自从出版以来，就受到许多人的推崇。由于1949年后长期无法重印，这本书逐渐淡出人们的视野。1960年代，旅美汉学家夏志清在《中国现代小说史》(AHistoryofModernChineseFiction)中对本书作出很高的评价，这才重新引起人们对它的关注。人们对它的评价一般集中在两方面，幽默的语言和对生活深刻的观察。从1990年代开始，也有人提出对本书的不同看法，认为这是一部被“拔高”的小说，并不是一部出色的作品。很多人认为这是一部幽默作品。除了各具特色的人物语言之外，作者夹叙其间的文字也显着机智与幽默。这是本书的一大特色。也有人认为这是作者卖弄文字，语言显得尖酸刻薄。但这一说法并不为大多数人接受。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1017143</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>不能承受的生命之轻</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[捷克]米兰·昆德拉</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>上海译文出版社</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Nesnesitelná lehkost bytí</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>许钧</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>394定价:23.00元装帧:平装</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>兰·昆德拉作品系列（2003版）
-ISBN: 9787532731077</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>米兰·昆德拉（MilanKundera,1929-），捷克小说家，生于捷克布尔诺市。父亲为钢琴家、音乐艺术学院的教授。生长于一个小国在他看来实在是一种优势，因为身处小国，“要么做一个可怜的、眼光狭窄的人”，要么成为一个广闻博识的“世界性的人”。童年时代，他便学过作曲，受过良好的音乐熏陶和教育。少年时代，开始广泛阅读世界文艺名著。青年时代，写过诗和剧本，画过画，搞过音乐并从事过电影教学。总之，用他自己的话说，“我曾在艺术领域里四处摸索，试图找到我的方向。”50年代初，他作为诗人登上文坛，出版过《人，一座广阔的花园》（1953）、《独白》（1957）以及《最后一个五月》等诗集。但诗歌创作显然不是他的长远追求。最后，当他在30岁左右写出第一个短篇小说后，他确信找到了自己的方向，从此走上了小说创作之路。1967年，他的第一部长篇小说《玩笑》在捷克出版，获得巨大成功，连出三版，印数惊人，每次都在几天内售馨。作者在捷克当代文坛上的重要地位从此确定。但好景不长。1968年，苏联入侵捷克后，《玩笑》被列为禁书。昆德拉失去了在电影学院的职务。他的文学创作难以进行。在此情形下，他携妻子于1975年离开捷克，来到法国。移居法国后，他很快便成为法国读者最喜爱的外国作家之一。他的绝大多数作品，如《笑忘录》（1978）、《不能承受的存在之轻》（1984）、《不朽》（1990）等等都是首先在法国走红，然后才引起世界文坛的瞩目。他曾多次获得国际文学奖，并多次被提名为诺贝尔文学奖的候选人。除小说外，昆德拉还出版过三本论述小说艺术的文集，其中《小说的艺术》（1936）以及《被叛卖的遗嘱》（1993）在世界各地流传甚广。昆德拉善于以反讽手法，用幽默的语调描绘人类境况。他的作品表面轻松，实质沉重；表面随意，实质精致；表面通俗，实质深邃而又机智，充满了人生智慧。正因如此，在世界许多国家，一次又一次地掀起了“昆德拉热”。昆德拉原先一直用捷克语进行创作。但近年来，他开始尝试用法语写作，已出版了《缓慢》（1995）和《身份》（1997）两部小说。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1040771</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>达·芬奇密码</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[美]丹·布朗</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>上海人民出版社出品方:世纪文景</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The Da Vinci Code</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>朱振武</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>432定价:28.00元装帧:平装ISBN:97872080500</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-                [美]
-            丹·布朗
-出版社:
-上海人民出版社
-出品方:
-世纪文景
-原作名: The Da Vinci Code
-译者:
-            朱振武
-出版年: 2004-2
-页数: 432
-定价: 28.00元
-装帧: 平装
-ISBN: 9787208050037</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>哈佛大学的符号学专家罗伯特·兰登在法国巴黎出差期间的一个午夜接到一个紧急电话，得知卢浮宫博物馆年迈的馆长被人杀害在卢浮宫的博物馆里，人们在他的尸体旁边发现了一个难以捉摸的密码。兰登与法国一位颇有天分的密码破译专家索菲·奈芙，在对一大堆怪异的密码进行整理的过程当中，发现一连串的线索就隐藏在达芬奇的艺术作品当中，深感震惊。这些线索，大家都清楚可见，然而却被画家巧妙地隐藏起来。兰登无意之中非常震惊地发现，已故的博物馆馆长是峋山隐修会（Prioryofsion）的成员--这是一个真实存在的秘密组织，其成员包括艾撒克・牛顿爵士、波提切利、维克多·雨果与达芬奇，这无疑给他们增加了风险。兰登感觉到他们是在找寻一个石破天惊的历史秘密，这是个数世纪以来就证明了的既能给人启迪又很危险的秘密。在这场足迹遍及巴黎以及伦敦的追逐中，兰登与奈芙发现他们在跟一位始终不露面的幕后操纵者斗智斗勇。他们必须解开这个错综复杂的谜团，否则，峋山隐修会掩盖的秘密，那隐藏了多年的令人震惊的古老真相，将永远消逝在历史的尘埃之中。</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1016300</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>梦里花落知多少</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>郭敬明</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>春风文艺出版社出版年: 2003-11页数: 252定价: 20.00元装帧: 平装ISBN: 97875313250</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            郭敬明出版社:春风文艺出版社出版年: 2003-11页数: 252定价: 20.00元装帧: 平装ISBN: 97875313250</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>:郭敬明出版社:春风文艺出版社</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>252定价:20.00元装帧:平装ISBN:97875313250</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-            郭敬明
-出版社:
-春风文艺出版社
-出版年: 2003-11
-页数: 252
-定价: 20.00元
-装帧: 平装
-ISBN: 9787531325093</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>《梦里花落知多少》是郭敬明出版第二部小说，此作一改《幻城》的奇幻风格，从天上回到人间。小说以北京、上海等大都市为背景，讲述了几个年青人的爱情故事，情节曲折，语言幽默生动。主人公是一些即将走出校门的大学生，在成长的过程中，友情、爱情都在经历着蜕变，那种成长的快乐和忧伤很能引起年轻读者的共鸣。</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1529893</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>莲花</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安妮宝贝</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>作家出版社出版年: 2006-3页数: 210定价: 25.00元装帧: 精装ISBN: 97875063358</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    安妮宝贝出版社:作家出版社出版年: 2006-3页数: 210定价: 25.00元装帧: 精装ISBN: 97875063358</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>:安妮宝贝出版社:作家出版社</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>210定价:25.00元装帧:精装ISBN:97875063358</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        
-            安妮宝贝
-出版社:
-作家出版社
-出版年: 2006-3
-页数: 210
-定价: 25.00元
-装帧: 精装
-ISBN: 9787506335867</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>全书收录安妮墨脱之行所拍八张图片，皆沿途所见。《莲花》叙述年轻女子庆昭身患疾病，滞留高原，静等死亡。中年男人善生刚刚结束追名逐利的暄腾往日，内心长久压抑的黑暗苏醒，准备去与世隔绝的墨脱，寻访旧友内河。内河是被世界遗忘的女子，命运多舛。一路上善生向庆昭讲述自己和内河的往昔，雅鲁藏布江江河谷的奇崛险阻，恰似叙述中依次展开的一代人苦痛而流离的蜕变过程。</t>
         </is>
       </c>
     </row>

--- a/book.xlsx
+++ b/book.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="905-1005" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,408 +446,369 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>评分</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>出版社</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>原作名</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>译者</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>出版年</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>丛书</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ISBN</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>简介</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>作者简介</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1046265</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1485495</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>挪威的森林</t>
+          <t>楼下的房客</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[日]村上春树</t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>上海译文出版社</t>
+          <t>九把刀</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ノルウェイの森</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>林少华</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>350定价:18.80元装帧:平装</t>
-        </is>
-      </c>
+          <t>花山文艺出版社</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>上春树文集（2001版）
-ISBN: 9787532725694</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>这是一部动人心弦的、平缓舒雅的、略带感伤的恋爱小说。小说主人公渡边以第一人称展开他同两个女孩间的爱情纠葛。渡边的第一个恋人直子原是他高中要好同学木月的女友，后来木月自杀了。一年后渡边同直子不期而遇并开始交往。此时的直子已变得娴静腼腆，美丽晶莹的眸子里不时掠过一丝难以捕捉的阴翳。两人只是日复一日地在落叶飘零的东京街头漫无目标地或前或后或并肩行走不止。直子20岁生日的晚上两人发生了性关系，不料第二天直子便不知去向。几个月后直子来信说她住进一家远在深山里的精神疗养院。渡边前去探望时发现直子开始带有成熟女性的丰腴与娇美。晚间两人虽同处一室，但渡边约束了自己，分手前表示永远等待直子。返校不久，由于一次偶然相遇，渡边开始与低年级的绿子交往。绿子同内向的直子截然相反，“简直就像迎着春天的晨光蹦跳到世界上来的一头小鹿”。这期间，渡边内心十分苦闷彷徨。一方面念念不忘直子缠绵的病情与柔情，一方面又难以抗拒绿子大胆的表白和迷人的活力。不久传来直子自杀的噩耗，渡边失魂魄地四处徒步旅行。最后，在直子同房病友玲子的鼓励下，开始摸索此后的人生。</t>
+          <t xml:space="preserve"> 2006-1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9787806736821</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>小说是一部悬疑而又诡异的出租屋的故事。详细描述了每个人的外型、特征、癖好，运用一个思想怪异的房东把他们串联成一个个恐怖的故事。一个继承出租公寓的无业游民，在东海大学附近贴起招租布告，他不要家世清白的乖乖牌学生、不要收支稳定的上班族、不要勤俭质朴的小家庭，他只要“正常人”，像任何符合正常定义，有混乱潜质的正常人，能满足他偷窥正常面具下的黑暗面的正常人。因此，有家暴前科的体育老师老张、黏在网上的大学生伯彦、失婚的王先生和纯洁像天使的王小妹、神秘作家颖如、同性人令狐和郭力、上班尤物陈小姐一起搬到了出租公寓。八个房客还有一个变态房东，六个房间外加一堆秘密。人性潜在的可能性，使我们无法预测每个房间到底还有多少隐私。</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>九把刀，本名柯景腾，台湾网络作家、新晋导演编剧。柯景腾在就读国立交通大学时，因为没有考取研究所而延缓毕业。在这段重考的期间，柯景腾发表了网络小说《语言》和其他共五篇小说、约三十万字。1999年因为《功夫》在KKCity BBS站连载开始备受瞩目、从此柯景腾对写作产生了兴趣。《交大有恐龙》是柯景腾的创作第一次登上媒体。当时同样就读交大的外文系学生彭莘创作了一首讽刺网络歌曲《交大无帅哥》，于是柯景腾创作《交大有恐龙》作为回应。　 
+　　九把刀以《台湾BBS网络小说社群与其迷文化》为硕士论文题目，其中认为研究台湾网络小说要重视在BBS连载发表并且与读者互动的作品。他认为小说的重点在读者，而台湾网络小说与其含有大量年轻人的“迷”社群文化密不可分，许多部份不能抽离迷社群的语境 。而年轻的作者与读者都希望生产、再生产作品来追求沟通与认同，则是此社群与作品的特色。 
+　　78年出生的九把刀，被台湾媒体封为金庸传人，又被誉为“网络文学经典制造机”的他，是继金庸很久很久之后才迷上的作家。作家有很多类型，有专门写爱情的、科幻的、武侠的……但九把刀，他几乎什么题材都会写，而且写得很好。 
+　　他的小说有着金庸的一大特征：看后令人回味无穷的魅力，网络界有一种流行的说法：养最蠢的狗，交最贱的朋友，看周星驰的电影，听周杰伦的歌 ，看九把刀的小说。
+　　他小说最大的特点是：有趣。在爆笑之余还可以深深地被感动、被启发，可不是一般作家可以做到的事情，就不多介绍了。 
+　　《流星花园》制作人柴智屏强力推荐：对我而言，九把刀的作品可是具备了杀伤力，总是让我为了想阅读他的书而不能专心工作，故事总是一开始就吸引我的目光，让我忍不住想继续看下去。 
+　　“社会学+漫画+武侠小说+周星驰+杜琪峰+X+Y=网络小说经典制造机：九把刀。”九把刀博客上的签名是这样的。没错，你在他的小说中可以找到这部机器的所有部件。
+　　2011年，九把刀担任编剧和导演的影片《那些年，我们一起追的女孩》，上映后在两岸三地广受好评，立刻引发一股追捧狂潮。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1084336</v>
+        <v>2009825</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>小王子</t>
+          <t>绾青丝Ⅰ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[法国]安东尼·德·圣-埃克苏佩里</t>
+          <t xml:space="preserve"> 7.4 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>人民文学出版社</t>
+          <t>波波</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Le Petit Prince</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>马振聘</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>97定价:22.00元装帧:平装ISBN:97870200424</t>
-        </is>
-      </c>
+          <t>花山文艺出版社副标题: 青楼篇</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                [法国]
-            安东尼·德·圣-埃克苏佩里
-出版社:
-人民文学出版社
-原作名: Le Petit Prince
- 译者:
-        马振聘
-出版年: 2003-8
-页数: 97
-定价: 22.00元
-装帧: 平装
-ISBN: 9787020042494</t>
+          <t xml:space="preserve"> 2007-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>小王子是一个超凡脱俗的仙童，他住在一颗只比他大一丁点儿的小行星上。陪伴他的是一朵他非常喜爱的小玫瑰花。但玫瑰花的虚荣心伤害了小王子对她的感情。小王子告别小行星，开始了遨游太空的旅行。他先后访问了六个行星，各种见闻使他陷入忧伤，他感到大人们荒唐可笑、太不正常。只有在其中一个点灯人的星球上，小王子才找到一个可以作为朋友的人。但点灯人的天地又十分狭小，除了点灯人他自己，不能容下第二个人。在地理学家的指点下，孤单的小王子来到人类居住的地球。小王子发现人类缺乏想象力，只知像鹦鹉那样重复别人讲过的话。小王子这时越来越思念自己星球上的那枝小玫瑰。后来，小王子遇到一只小狐狸，小王子用耐心征服了小狐狸，与它结成了亲密的朋友。小狐狸把自己心中的秘密——肉眼看不见事务的本质，只有用心灵才能洞察一切——作为礼物，送给小王子。用这个秘密，小王子在撒哈拉大沙漠与遇险的飞行员一起找到了生命的泉水。最后，小王子在蛇的帮助下离开地球，重新回到他的B612号小行星上。童话描写小王子没有被成人那骗人的世界所征服，而最终找到自己的理想。这理想就是连结宇宙万物的爱，而这种爱又是世间所缺少的。因此，小王子常常流露出一种伤感的情绪。作者圣埃克絮佩里在献辞中说：这本书是献给长成了大人的从前那个孩子。《小王子》不仅赢得了儿童读者，也为成年人所喜爱，作品凝练的语言渗透了作者对人类及人类文明深邃的思索。它所表现出的讽刺与幻想，真情与哲理，使之成为法国乃至世界上最为著名的一部童话小说。</t>
+          <t xml:space="preserve"> 绾青丝</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9787806739679</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>叶海花，长得不够美，身材不够瘦，在感情上受过大大小小很多伤害。于是希望园转世做一只米虫，能够找到真正疼惜自己的人。在小冥王的帮助下，叶海花摇身变成大奸臣的女儿蔚蓝雪。熟料，刚一睁眼的蓝雪就发现自己正在被一个绝色美男的强暴，而自己的父亲被人斩断手脚装在一个坛子里正在观摩这场好戏……原来，绝色美男与自己有不共戴天的灭门之仇，自己落在这样的人手上，岂不是死路一条……</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>"波波，本名黎珂，女，1976年清明生于四川垫江（今属重庆市），在交通行业工作 。"</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1008145</v>
+        <v>1043485</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>围城</t>
+          <t>檀香刑</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>钱锺书</t>
+          <t xml:space="preserve"> 8.3 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>人民文学出版社出版年: 1991-2页数: 359定价: 19.00装帧: 平装ISBN: 97870200247</t>
+          <t>莫言</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    钱锺书出版社:人民文学出版社出版年: 1991-2页数: 359定价: 19.00装帧: 平装ISBN: 97870200247</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>:钱锺书出版社:人民文学出版社</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>359定价:19.00装帧:平装ISBN:97870200247</t>
-        </is>
-      </c>
+          <t>作家出版社</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        
-            钱锺书
-出版社:
-人民文学出版社
-出版年: 1991-2
-页数: 359
-定价: 19.00
-装帧: 平装
-ISBN: 9787020024759</t>
+          <t xml:space="preserve"> 2001-3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>《围城》是钱钟书所著的长篇小说。第一版于1947年由上海晨光出版公司出版。1949年之后，由于政治等方面的原因，本书长期无法在中国大陆和台湾重印，仅在香港出现过盗印本。1980年由作者重新修订之后，在中国大陆地区由人民文学出版社刊印。此后作者又曾小幅修改过几次。《围城》自从出版以来，就受到许多人的推崇。由于1949年后长期无法重印，这本书逐渐淡出人们的视野。1960年代，旅美汉学家夏志清在《中国现代小说史》(AHistoryofModernChineseFiction)中对本书作出很高的评价，这才重新引起人们对它的关注。人们对它的评价一般集中在两方面，幽默的语言和对生活深刻的观察。从1990年代开始，也有人提出对本书的不同看法，认为这是一部被“拔高”的小说，并不是一部出色的作品。很多人认为这是一部幽默作品。除了各具特色的人物语言之外，作者夹叙其间的文字也显着机智与幽默。这是本书的一大特色。也有人认为这是作者卖弄文字，语言显得尖酸刻薄。但这一说法并不为大多数人接受。</t>
+          <t xml:space="preserve"> 重温经典</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9787506320511</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>《檀香刑》是莫言潜心五年完成的一部长篇新作。在这部神品妙构的小说中，莫言以1900年德国人在山东修建胶济铁路、袁世凯镇压山东义和团运动、八国联军攻陷北京、慈禧仓皇出逃为历史背景，用摇曳多姿的笔触，大悲大喜的激情，高瞻深睿的思想，活灵活现地讲述了发生在“高密东北乡”的一场可歌可泣的农民运动，一桩骇人听闻的酷刑，一段惊心动魄的爱情。“檀香刑”是一种类似西方“桩刑”的酷刑，农民领袖不幸遭此大难。小说情节以女主人公眉娘与她的亲爹、干爹、公爹之间的恩恩怨怨，生生死死展开……这部小说是对魔幻现实主义和西方现代派小说的反动，更是对坊间流行的历史小说的快意叫板，全书具有民间文学那种雅俗共赏，人相传诵的生动性。作者用公然炫技的“凤头——猪肚——豹尾”的结构模式，将一个千头万绪的故事讲述得时而让人毛骨悚然，时而又让人柔情万种。</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>莫言（1955年2月17日－），原名管谟业，生于山东高密县，中国当代著名作家，是第一个获得诺贝尔文学奖的中国籍作家。他自1980年代以一系列乡土作品崛起，充满着“怀乡”以及“怨乡”的复杂情感，被归类为“寻根文学”作家。北京师范大学文学院教授，山东大学文学与新闻传播学院兼职教授，香港公开大学荣誉文学博士，青岛科技大学客座教授。其作品深受魔幻现实主义影响，代表作有《红高粱》、《檀香刑》、《丰乳肥臀》等，其中《蛙》获第八届茅盾文学奖。2012年10月11日，莫言获得2012年诺贝尔文学奖，颁奖词称莫言“用魔幻般的现实主义将民间故事、历史和现代融为一体”。2013年10月30日，中国首家培养网络文学原创作者的公益性大学“网络文学大学”开学，莫言担任该校的名誉校长。2014年12月，莫言先后获颁香港中文大学、澳门大学荣誉文学博士学位 。据不完全统计，莫言的作品目前至少已经被翻译成40种语言。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1017143</v>
+        <v>4173403</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>不能承受的生命之轻</t>
+          <t>温柔的叹息</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[捷克]米兰·昆德拉</t>
+          <t xml:space="preserve"> 7.7 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>[日]青山七惠</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>上海译文出版社</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Nesnesitelná lehkost bytí</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>许钧</t>
+          <t xml:space="preserve"> やさしいため息</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>394定价:23.00元装帧:平装</t>
+          <t>[中国]竺家荣</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>兰·昆德拉作品系列（2003版）
-ISBN: 9787532731077</t>
+          <t xml:space="preserve"> 2010-1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>米兰·昆德拉（MilanKundera,1929-），捷克小说家，生于捷克布尔诺市。父亲为钢琴家、音乐艺术学院的教授。生长于一个小国在他看来实在是一种优势，因为身处小国，“要么做一个可怜的、眼光狭窄的人”，要么成为一个广闻博识的“世界性的人”。童年时代，他便学过作曲，受过良好的音乐熏陶和教育。少年时代，开始广泛阅读世界文艺名著。青年时代，写过诗和剧本，画过画，搞过音乐并从事过电影教学。总之，用他自己的话说，“我曾在艺术领域里四处摸索，试图找到我的方向。”50年代初，他作为诗人登上文坛，出版过《人，一座广阔的花园》（1953）、《独白》（1957）以及《最后一个五月》等诗集。但诗歌创作显然不是他的长远追求。最后，当他在30岁左右写出第一个短篇小说后，他确信找到了自己的方向，从此走上了小说创作之路。1967年，他的第一部长篇小说《玩笑》在捷克出版，获得巨大成功，连出三版，印数惊人，每次都在几天内售馨。作者在捷克当代文坛上的重要地位从此确定。但好景不长。1968年，苏联入侵捷克后，《玩笑》被列为禁书。昆德拉失去了在电影学院的职务。他的文学创作难以进行。在此情形下，他携妻子于1975年离开捷克，来到法国。移居法国后，他很快便成为法国读者最喜爱的外国作家之一。他的绝大多数作品，如《笑忘录》（1978）、《不能承受的存在之轻》（1984）、《不朽》（1990）等等都是首先在法国走红，然后才引起世界文坛的瞩目。他曾多次获得国际文学奖，并多次被提名为诺贝尔文学奖的候选人。除小说外，昆德拉还出版过三本论述小说艺术的文集，其中《小说的艺术》（1936）以及《被叛卖的遗嘱》（1993）在世界各地流传甚广。昆德拉善于以反讽手法，用幽默的语调描绘人类境况。他的作品表面轻松，实质沉重；表面随意，实质精致；表面通俗，实质深邃而又机智，充满了人生智慧。正因如此，在世界许多国家，一次又一次地掀起了“昆德拉热”。昆德拉原先一直用捷克语进行创作。但近年来，他开始尝试用法语写作，已出版了《缓慢》（1995）和《身份》（1997）两部小说。</t>
+          <t xml:space="preserve"> 青山七惠作品</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9787532749447</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>《温柔的叹息》是青山七惠芥川奖获奖作品《一个人的好天气》的延伸，像极了一名女子成长历程的追踪报道。小说从主人公“圆”突遇4年来音信全无的弟弟开始。弟弟自说自话搬进姐姐租的房子，从此开始每天记“姐姐观察日记”。姐姐读后才意识到自己的每一天过得是何等的枯燥乏味，纯粹是“复制加粘贴”。于是她决定试着改变现状，同弟弟的一个朋友相恋，接受同事参加忘年会的邀请，慢慢走出社交恐惧症的困扰。遗憾的是，她的男朋友却在这时突然中止两人的关系，这使她再度面临是否还要打开心扉的抉择。</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>青山七惠是日本“80后”新锐女作家，1983年出生于埼玉县熊谷市，毕业于筑波大学图书馆信息专业，目前在东京新宿一家旅游公司工作，写作只能算是她的副职。2005年9月，青山凭借小说处女作《窗灯》一举摘得有“芥川奖摇篮”之称的第42届日本文艺奖，在日本文学界崭露头角；继而又在2007年1月，以第二部作品《一个人的好天气》摘得“芥川奖”，成为该奖历史上第三位年轻的女性得主。和青山七惠一样，在23岁就获得“芥川奖”的作家，有石原慎太郎和大江健三郎，这两位后来都成为拥有世界声誉的大作家。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1040771</v>
+        <v>3274851</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>达·芬奇密码</t>
+          <t>原谅我红尘颠倒</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[美]丹·布朗</t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>上海人民出版社出品方:世纪文景</t>
+          <t>慕容雪村</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Da Vinci Code</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>朱振武</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>432定价:28.00元装帧:平装ISBN:97872080500</t>
-        </is>
-      </c>
+          <t>珠海出版社</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                [美]
-            丹·布朗
-出版社:
-上海人民出版社
-出品方:
-世纪文景
-原作名: The Da Vinci Code
-译者:
-            朱振武
-出版年: 2004-2
-页数: 432
-定价: 28.00元
-装帧: 平装
-ISBN: 9787208050037</t>
+          <t xml:space="preserve"> 2008-10</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>哈佛大学的符号学专家罗伯特·兰登在法国巴黎出差期间的一个午夜接到一个紧急电话，得知卢浮宫博物馆年迈的馆长被人杀害在卢浮宫的博物馆里，人们在他的尸体旁边发现了一个难以捉摸的密码。兰登与法国一位颇有天分的密码破译专家索菲·奈芙，在对一大堆怪异的密码进行整理的过程当中，发现一连串的线索就隐藏在达芬奇的艺术作品当中，深感震惊。这些线索，大家都清楚可见，然而却被画家巧妙地隐藏起来。兰登无意之中非常震惊地发现，已故的博物馆馆长是峋山隐修会（Prioryofsion）的成员--这是一个真实存在的秘密组织，其成员包括艾撒克・牛顿爵士、波提切利、维克多·雨果与达芬奇，这无疑给他们增加了风险。兰登感觉到他们是在找寻一个石破天惊的历史秘密，这是个数世纪以来就证明了的既能给人启迪又很危险的秘密。在这场足迹遍及巴黎以及伦敦的追逐中，兰登与奈芙发现他们在跟一位始终不露面的幕后操纵者斗智斗勇。他们必须解开这个错综复杂的谜团，否则，峋山隐修会掩盖的秘密，那隐藏了多年的令人震惊的古老真相，将永远消逝在历史的尘埃之中。</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 慕容雪村文集</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9787545300932</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>一位来自穷困乡村、穷困家庭的小男孩，经过自己的勤奋努力，终于完成了父亲的遗愿考上了大学法律专业，毕业之后又在一个经济十分发达的开放城市当上了颇有名气的律师，并且经常在当地的电视节目频频上镜，是著名法律栏目的主讲嘉宾，要么讲授法律知识，要么解答观众提出的的种种法律疑难，成为该城市的公众人物……然而，就是这样一位事业蒸蒸日上、金钱名利俱全的律师，最后却走上了厌世悲观以致杀人灭尸的犯罪之路……这是慕容雪村的长篇小说《原谅我红尘颠倒》所叙说的一场“红尘大梦”，是一个令人颤栗的故事，一个发人深省的故事……罪恶、阴谋、堕落、势利、虚伪、凶残、歹毒、肮脏、矜持、善良、固执……各色人物性格形象万千，栩栩如生；律师、法官、干警、老板、艺人、电视节目主持人、原告、被告、监狱看守甚至寺庙僧人等等，都在这个错综复杂的故事里活灵活现。他们形象生动，性格迥异。尤其是那些蝇营狗苟之徒，其德行与嘴脸描绘得是那么地令人憎恶，司法界某些行尸走肉的人性堕落与道德腐化是那样地令人震颤。</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1016300</v>
+        <v>1017839</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>梦里花落知多少</t>
+          <t>带着鲑鱼去旅行</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>郭敬明</t>
+          <t xml:space="preserve"> 7.7 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>春风文艺出版社出版年: 2003-11页数: 252定价: 20.00元装帧: 平装ISBN: 97875313250</t>
+          <t>安伯托・艾柯/殳俏</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">            郭敬明出版社:春风文艺出版社出版年: 2003-11页数: 252定价: 20.00元装帧: 平装ISBN: 97875313250</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>:郭敬明出版社:春风文艺出版社</t>
-        </is>
-      </c>
+          <t>广西师范大学出版社出品方:三辉图书 译者:                                马淑艳                   /                        殳俏</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>252定价:20.00元装帧:平装ISBN:97875313250</t>
+          <t>马淑艳/殳俏</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-            郭敬明
-出版社:
-春风文艺出版社
-出版年: 2003-11
-页数: 252
-定价: 20.00元
-装帧: 平装
-ISBN: 9787531325093</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>《梦里花落知多少》是郭敬明出版第二部小说，此作一改《幻城》的奇幻风格，从天上回到人间。小说以北京、上海等大都市为背景，讲述了几个年青人的爱情故事，情节曲折，语言幽默生动。主人公是一些即将走出校门的大学生，在成长的过程中，友情、爱情都在经历着蜕变，那种成长的快乐和忧伤很能引起年轻读者的共鸣。</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1529893</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>莲花</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安妮宝贝</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>作家出版社出版年: 2006-3页数: 210定价: 25.00元装帧: 精装ISBN: 97875063358</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    安妮宝贝出版社:作家出版社出版年: 2006-3页数: 210定价: 25.00元装帧: 精装ISBN: 97875063358</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>:安妮宝贝出版社:作家出版社</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>210定价:25.00元装帧:精装ISBN:97875063358</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        
-            安妮宝贝
-出版社:
-作家出版社
-出版年: 2006-3
-页数: 210
-定价: 25.00元
-装帧: 精装
-ISBN: 9787506335867</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>全书收录安妮墨脱之行所拍八张图片，皆沿途所见。《莲花》叙述年轻女子庆昭身患疾病，滞留高原，静等死亡。中年男人善生刚刚结束追名逐利的暄腾往日，内心长久压抑的黑暗苏醒，准备去与世隔绝的墨脱，寻访旧友内河。内河是被世界遗忘的女子，命运多舛。一路上善生向庆昭讲述自己和内河的往昔，雅鲁藏布江江河谷的奇崛险阻，恰似叙述中依次展开的一代人苦痛而流离的蜕变过程。</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 2004-09</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9787563349197</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>本书是艾柯的一些专栏文章的集成册子，通过作者对于生活中的戏谑、挑衅、怪诞、极智，艾柯对我们从未想过的问题予以解答，又对我们已视为常识的问题之答案进行质疑。《带着鲑鱼去旅行》以艾柯一贯的横溢才华，游走于无用、有趣和出人意料之间。本书并非所有篇目都是仿讽之作，其中也有说教意图的文章。</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
